--- a/src/results.xlsx
+++ b/src/results.xlsx
@@ -3,27 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Python" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +42,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,14 +75,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -405,11 +428,11 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -421,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,39 +453,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>profession</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>schedule</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>experience</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>salary</t>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>salary_min</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>salary_max</t>
         </is>
       </c>
     </row>
@@ -497,10 +525,11 @@
           <t>От 6 лет</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[200000, 300000]</t>
-        </is>
+      <c r="G2" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>300000</v>
       </c>
     </row>
     <row r="3">
@@ -534,10 +563,11 @@
           <t>От 1 года до 3 лет</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[50000, 0]</t>
-        </is>
+      <c r="G3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="4">
@@ -571,10 +601,11 @@
           <t>От 1 года</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[30000, 0]</t>
-        </is>
+      <c r="G4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="5">
@@ -608,10 +639,125 @@
           <t>Нет опыта</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[0, 0]</t>
-        </is>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Старший программист-разработчик (Python/Django) / Senior back-end developer</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.superjob.ru/vakansii/starshij-programmist-razrabotchik-46663422.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Удачный выбор</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Полный рабочий день</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>От 6 лет</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Старший программист-разработчик (Python/Django) / Senior back-end developer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.superjob.ru/vakansii/starshij-programmist-razrabotchik-46663422.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Удачный выбор</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Полный рабочий день</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>От 6 лет</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Старший программист-разработчик (Python/Django) / Senior back-end developer</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.superjob.ru/vakansii/starshij-programmist-razrabotchik-46663422.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Удачный выбор</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Полный рабочий день</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>От 6 лет</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>

--- a/src/results.xlsx
+++ b/src/results.xlsx
@@ -2,33 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Python" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="search_results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -42,27 +37,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -75,19 +55,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -170,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -234,15 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -269,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -281,142 +256,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -426,25 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,42 +434,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>profession</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>schedule</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>experience</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>salary_min</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>salary_max</t>
         </is>
@@ -535,22 +516,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Back-end developer Python Junior / Бекенд-разработчик Python</t>
+          <t>Junoir backend developer (Python)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/81236105</t>
+          <t>https://hh.ru/vacancy/82411482</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Таганрог</t>
+          <t>Баку</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APPTRIX</t>
+          <t>Emphasoft</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -560,63 +541,63 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>Нет опыта</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="H3" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Методист по программированию на Python (в центр цифрового образования)</t>
+          <t>Back-end developer Python Junior / Бекенд-разработчик Python</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://spb.superjob.ru/vakansii/metodist-po-programmirovaniyu-na-python-38140998.html</t>
+          <t>https://hh.ru/vacancy/81236105</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Таганрог</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ГБОУ "Лицей №126" Калининского района Санкт-Петербурга</t>
+          <t>APPTRIX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Полный рабочий день</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>От 1 года</t>
+          <t>От 1 года до 3 лет</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H4" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Стажер в IT-компанию (с уклоном в python разработку)</t>
+          <t>Методист по программированию на Python (в центр цифрового образования)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/82345120</t>
+          <t>https://spb.superjob.ru/vakansii/metodist-po-programmirovaniyu-na-python-38140998.html</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -626,138 +607,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>АйТи-Солюшн</t>
+          <t>ГБОУ "Лицей №126" Калининского района Санкт-Петербурга</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Полный рабочий день</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Нет опыта</t>
+          <t>От 1 года</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Старший программист-разработчик (Python/Django) / Senior back-end developer</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.superjob.ru/vakansii/starshij-programmist-razrabotchik-46663422.html</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Удачный выбор</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Полный рабочий день</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>От 6 лет</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>200000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Старший программист-разработчик (Python/Django) / Senior back-end developer</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.superjob.ru/vakansii/starshij-programmist-razrabotchik-46663422.html</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Удачный выбор</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Полный рабочий день</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>От 6 лет</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>200000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Старший программист-разработчик (Python/Django) / Senior back-end developer</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.superjob.ru/vakansii/starshij-programmist-razrabotchik-46663422.html</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Удачный выбор</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Полный рабочий день</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>От 6 лет</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>200000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>300000</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/src/results.xlsx
+++ b/src/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Старший программист-разработчик (Python/Django) / Senior back-end developer</t>
+          <t>Junior Аналитик</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.superjob.ru/vakansii/starshij-programmist-razrabotchik-46663422.html</t>
+          <t>https://hh.ru/vacancy/81595610</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,45 +493,45 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Удачный выбор</t>
+          <t>Доценко Дарья</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Полный рабочий день</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>От 6 лет</t>
+          <t>Нет опыта</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="H2" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Junoir backend developer (Python)</t>
+          <t>Junior Data scientist (Аналитик)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/82411482</t>
+          <t>https://hh.ru/vacancy/81862798</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Баку</t>
+          <t>Нижний Новгород</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Emphasoft</t>
+          <t>Займиго МФК</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -554,22 +554,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Back-end developer Python Junior / Бекенд-разработчик Python</t>
+          <t>Junior Python Developer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/81236105</t>
+          <t>https://hh.ru/vacancy/81667130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Таганрог</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APPTRIX</t>
+          <t>АО НТЦ Атлас</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -579,52 +579,394 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>От 1 года до 3 лет</t>
+          <t>Нет опыта</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>50000</v>
       </c>
       <c r="H4" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Методист по программированию на Python (в центр цифрового образования)</t>
+          <t>Программист Python Junior (BigData)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://spb.superjob.ru/vakansii/metodist-po-programmirovaniyu-na-python-38140998.html</t>
+          <t>https://hh.ru/vacancy/82524858</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BRANDPOL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>45000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Junior Python Django (стажер)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/82082298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Новый стартап, решения для транспорта</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Можно работать сменами по 4–6 часов в день</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Программист Python (Junior)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/79995246</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Волгоград</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Открытые Бизнес Технологии</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Начинающий Веб программист (Junior Web-разработчик)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/82509167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Саратов</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>РэйнбовСофт, НПО</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Junior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/82534003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Санкт-Петербург</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ГБОУ "Лицей №126" Калининского района Санкт-Петербурга</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Полный рабочий день</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>От 1 года</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>30000</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Совкомбанк Страхование</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Junior Python Developer (агентство Starlink)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/82522478</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>RoRe Group</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Тестировщик (Junior)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/82238787</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>айФлекс, компания</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Junior Manual QA Engineer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/79058266</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Saber Interactive</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>QA Engineer (Junior)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/81855673</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ЛИИС Инженерные Решения</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Экономист-аналитик (junior/middle data scientist)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/82624745</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Аналитический центр при Правительстве Российской Федерации</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Нет опыта</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
